--- a/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>a56377a9-fb7b-47b1-a1c0-c96904261e37</t>
+    <t>43c6c5c4-ad73-418e-9cb3-7abca14b96aa</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>43c6c5c4-ad73-418e-9cb3-7abca14b96aa</t>
+    <t>afcfe723-d0eb-4b09-a014-08d7f43ae108</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>afcfe723-d0eb-4b09-a014-08d7f43ae108</t>
+    <t>81f5d361-90ba-403d-9895-ea179b9c4a74</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>81f5d361-90ba-403d-9895-ea179b9c4a74</t>
+    <t>a8f82638-f996-43c1-be6e-0f464797678a</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>a8f82638-f996-43c1-be6e-0f464797678a</t>
+    <t>fd8e89b4-5e2e-4096-beec-ffbd7f01b9d2</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>fd8e89b4-5e2e-4096-beec-ffbd7f01b9d2</t>
+    <t>84854fbf-8ef7-490a-acd7-b1e138797ba8</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>
